--- a/regions/4/biznes seqtori/zomis mikhedvit.xlsx
+++ b/regions/4/biznes seqtori/zomis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8EA2F4-B3DC-481F-951C-C0832E843AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -145,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -180,6 +181,7 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,7 +533,7 @@
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,14 +542,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,14 +558,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>2006</v>
@@ -576,8 +612,14 @@
       <c r="P5" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,8 +668,14 @@
       <c r="P6" s="8">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8">
+        <v>7484.5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -676,8 +724,14 @@
       <c r="P7" s="11">
         <v>998.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="11">
+        <v>2394.5</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4005.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
@@ -726,8 +780,14 @@
       <c r="P8" s="11">
         <v>1688.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="11">
+        <v>2099.5</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2586.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -776,13 +836,19 @@
       <c r="P9" s="11">
         <v>2905.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="11">
+        <v>2990.5</v>
+      </c>
+      <c r="R9" s="11">
+        <v>4393.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>2006</v>
@@ -829,8 +895,14 @@
       <c r="P13" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -879,8 +951,14 @@
       <c r="P14" s="8">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="8">
+        <v>5258.3</v>
+      </c>
+      <c r="R14" s="8">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -929,8 +1007,14 @@
       <c r="P15" s="11">
         <v>804.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11">
+        <v>1396.7</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1907.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -978,6 +1062,12 @@
       </c>
       <c r="P16" s="11">
         <v>1142.2</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1433.8</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1774</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
@@ -1028,6 +1118,12 @@
       </c>
       <c r="P17" s="11">
         <v>1881.9</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>2427.8000000000002</v>
+      </c>
+      <c r="R17" s="11">
+        <v>2800.7</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
@@ -1082,6 +1178,12 @@
       <c r="P21" s="7">
         <v>2020</v>
       </c>
+      <c r="Q21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1132,8 +1234,12 @@
       <c r="P22" s="13">
         <v>68089.3</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="Q22" s="13">
+        <v>72973</v>
+      </c>
+      <c r="R22" s="13">
+        <v>75232</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -1186,8 +1292,12 @@
       <c r="P23" s="15">
         <v>13303</v>
       </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" s="15">
+        <v>14965</v>
+      </c>
+      <c r="R23" s="15">
+        <v>16850</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -1240,8 +1350,12 @@
       <c r="P24" s="15">
         <v>15194.5</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="Q24" s="15">
+        <v>13958</v>
+      </c>
+      <c r="R24" s="15">
+        <v>16013</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -1294,10 +1408,17 @@
       <c r="P25" s="15">
         <v>39591.800000000003</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="Q25" s="15">
+        <v>44051</v>
+      </c>
+      <c r="R25" s="15">
+        <v>42369</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1351,6 +1472,12 @@
       <c r="P29" s="7">
         <v>2020</v>
       </c>
+      <c r="Q29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="7">
+        <v>2022</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1401,6 +1528,12 @@
       <c r="P30" s="8">
         <v>995.6</v>
       </c>
+      <c r="Q30" s="8">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1258</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1451,6 +1584,12 @@
       <c r="P31" s="11">
         <v>1130.7</v>
       </c>
+      <c r="Q31" s="11">
+        <v>1392.1</v>
+      </c>
+      <c r="R31" s="11">
+        <v>1680.8</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1501,8 +1640,14 @@
       <c r="P32" s="11">
         <v>1244.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="11">
+        <v>1406.1</v>
+      </c>
+      <c r="R32" s="11">
+        <v>1589.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
@@ -1550,6 +1695,12 @@
       </c>
       <c r="P33" s="11">
         <v>825.7</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>820.8</v>
+      </c>
+      <c r="R33" s="11">
+        <v>915.8</v>
       </c>
     </row>
   </sheetData>
